--- a/src/assets/對帳單總表.xlsx
+++ b/src/assets/對帳單總表.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$14:$14</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$13:$13</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>年月</t>
   </si>
@@ -64,76 +64,6 @@
   </si>
   <si>
     <t>本期使用金額</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>注意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>置中及靠右</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>數值千分位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Inherit"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>標題粗體</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -182,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,19 +169,6 @@
       <charset val="136"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -262,7 +179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -320,53 +237,50 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -725,81 +639,81 @@
     <col min="8" max="8" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1">
+    <row r="6" spans="1:11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -812,157 +726,141 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="33.950000000000003" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+    <row r="8" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="10.5" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+    <row r="9" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="33.950000000000003" customHeight="1">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="20"/>
+      <c r="E10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="33.950000000000003" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+    <row r="11" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="9" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+    <row r="12" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1">
+    <row r="13" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1">
-      <c r="A14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="D13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F13" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H13" s="21" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
+  <mergeCells count="16">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="B3:H3"/>
@@ -973,7 +871,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A14:B14 D14:H14" numberStoredAsText="1"/>
+    <ignoredError sqref="A13:B13 D13:H13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>